--- a/tests/data/experiments/lr-xval-xlsx/output/final-model/output/lr_xval_xlsx_model_confMatrix.xlsx
+++ b/tests/data/experiments/lr-xval-xlsx/output/final-model/output/lr_xval_xlsx_model_confMatrix.xlsx
@@ -482,10 +482,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -499,13 +499,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -519,16 +519,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
         <v>12</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
